--- a/biology/Botanique/Styphelia/Styphelia.xlsx
+++ b/biology/Botanique/Styphelia/Styphelia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Styphelia est un genre de plantes à fleurs dicotylédones de la famille des Ericaceae originaire pour la plupart d'Australie ou des îles du Pacifique.
 Ce sont des arbustes de 40 cm à 2 m de haut à port érigé. Les feuilles, pétiolées, elliptiques ou oblongues font de 15 à 35 mm de long sur 3 à 9 de large à bord entier. Les fleurs sont rouges, crème ou jaune.
@@ -513,7 +525,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Styphelia adscendens R.Br. –
 Styphelia exarrhena (F.Muell.) F.Muell. –
@@ -527,13 +541,47 @@
 Styphelia perileuca J.M.Powell
 Styphelia psiloclada J.M.Powell
 Styphelia pulchella (Sond.) F.Muell.
-Styphelia tameiameiae (Cham. &amp; Schltdl.) F.Muell. – Pūkiawe[2] (Hawaï et îles Marquises)[3]
+Styphelia tameiameiae (Cham. &amp; Schltdl.) F.Muell. – Pūkiawe (Hawaï et îles Marquises)
 Styphelia tenuiflora Benth. –
 Styphelia triflora Andrews –
 Styphelia tubiflora Sm. – er
-Styphelia viridis Andrews
-Selon NCBI  (24 juil. 2011)[4]
-Styphelia cymbulae
+Styphelia viridis Andrews</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Styphelia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Styphelia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (24 juil. 2011)[4]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Styphelia cymbulae
 Styphelia enervia
 Styphelia exarrhena
 Styphelia exserta
